--- a/Scales.xlsx
+++ b/Scales.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\EdenCrystal_RPG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F039CE12-93BA-4F16-83A5-3362C84001A4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEB9C9DC-1D83-4BDA-9188-E09BF7F559C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5265" yWindow="2760" windowWidth="20910" windowHeight="11835" activeTab="2" xr2:uid="{80121B15-1F3C-43E2-96D6-9F162E0B6CDD}"/>
+    <workbookView xWindow="5265" yWindow="2760" windowWidth="20910" windowHeight="11835" xr2:uid="{80121B15-1F3C-43E2-96D6-9F162E0B6CDD}"/>
   </bookViews>
   <sheets>
     <sheet name="Normal Enemies" sheetId="4" r:id="rId1"/>
@@ -666,8 +666,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11F02E40-8F13-49DE-9451-8E504CADB204}">
   <dimension ref="A1:N101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -784,7 +784,7 @@
         <v>0</v>
       </c>
       <c r="L3" s="26">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="M3" s="26"/>
       <c r="N3" s="27"/>
@@ -830,14 +830,14 @@
       </c>
       <c r="L4" s="4">
         <f>VLOOKUP($L$3,$A$1:$I$101,2,TRUE)</f>
-        <v>1500</v>
+        <v>4000</v>
       </c>
       <c r="M4" s="7" t="s">
         <v>2</v>
       </c>
       <c r="N4" s="8">
         <f>VLOOKUP($L$3,$A$1:$I$101,3,TRUE)</f>
-        <v>450</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
@@ -881,14 +881,14 @@
       </c>
       <c r="L5" s="4">
         <f>VLOOKUP($L$3,$A$1:$I$101,4,TRUE)</f>
-        <v>150</v>
+        <v>400</v>
       </c>
       <c r="M5" s="7" t="s">
         <v>6</v>
       </c>
       <c r="N5" s="8">
         <f>VLOOKUP($L$3,$A$1:$I$101,7,TRUE)</f>
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
@@ -932,14 +932,14 @@
       </c>
       <c r="L6" s="4">
         <f>VLOOKUP($L$3,$A$1:$I$101,5,TRUE)</f>
-        <v>150</v>
+        <v>400</v>
       </c>
       <c r="M6" s="7" t="s">
         <v>7</v>
       </c>
       <c r="N6" s="8">
         <f>VLOOKUP($L$3,$A$1:$I$101,8,TRUE)</f>
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -983,7 +983,7 @@
       </c>
       <c r="L7" s="6">
         <f>VLOOKUP($L$3,$A$1:$I$101,6,TRUE)</f>
-        <v>120</v>
+        <v>320</v>
       </c>
       <c r="M7" s="9" t="s">
         <v>8</v>
@@ -1114,14 +1114,14 @@
       </c>
       <c r="L10" s="4">
         <f>VLOOKUP($L$3,$A$1:$I$101,2,TRUE)</f>
-        <v>1500</v>
+        <v>4000</v>
       </c>
       <c r="M10" s="7" t="s">
         <v>2</v>
       </c>
       <c r="N10" s="8">
         <f>VLOOKUP($L$3,$A$1:$I$101,3,TRUE)</f>
-        <v>450</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
@@ -1165,14 +1165,14 @@
       </c>
       <c r="L11" s="4">
         <f>VLOOKUP($L$3,$A$1:$I$101,4,TRUE)*0.6</f>
-        <v>90</v>
+        <v>240</v>
       </c>
       <c r="M11" s="7" t="s">
         <v>6</v>
       </c>
       <c r="N11" s="8">
         <f>VLOOKUP($L$3,$A$1:$I$101,7,TRUE)*0.4</f>
-        <v>60</v>
+        <v>160</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
@@ -1216,14 +1216,14 @@
       </c>
       <c r="L12" s="4">
         <f>VLOOKUP($L$3,$A$1:$I$101,5,TRUE)*0.6</f>
-        <v>90</v>
+        <v>240</v>
       </c>
       <c r="M12" s="7" t="s">
         <v>7</v>
       </c>
       <c r="N12" s="8">
         <f>VLOOKUP($L$3,$A$1:$I$101,8,TRUE)*0.4</f>
-        <v>60</v>
+        <v>160</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
@@ -1267,7 +1267,7 @@
       </c>
       <c r="L13" s="6">
         <f>VLOOKUP($L$3,$A$1:$I$101,6,TRUE)</f>
-        <v>120</v>
+        <v>320</v>
       </c>
       <c r="M13" s="9" t="s">
         <v>8</v>
@@ -1721,7 +1721,7 @@
       </c>
       <c r="L23" s="14">
         <f>50*L30</f>
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="M23" s="15" t="s">
         <v>16</v>
@@ -1769,7 +1769,7 @@
       </c>
       <c r="L24" s="6">
         <f>25*L30</f>
-        <v>750</v>
+        <v>1000</v>
       </c>
       <c r="M24" s="18" t="s">
         <v>16</v>
@@ -1897,7 +1897,7 @@
       </c>
       <c r="L27" s="14">
         <f>L23*3</f>
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="M27" s="15" t="s">
         <v>16</v>
@@ -1945,7 +1945,7 @@
       </c>
       <c r="L28" s="6">
         <f>L24*3</f>
-        <v>2250</v>
+        <v>3000</v>
       </c>
       <c r="M28" s="18" t="s">
         <v>16</v>
@@ -2029,7 +2029,7 @@
         <v>19</v>
       </c>
       <c r="L30">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
@@ -4677,7 +4677,7 @@
   <dimension ref="A1:N101"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
+      <selection activeCell="L3" sqref="L3:N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4794,7 +4794,7 @@
         <v>0</v>
       </c>
       <c r="L3" s="26">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="M3" s="26"/>
       <c r="N3" s="27"/>
@@ -4840,14 +4840,14 @@
       </c>
       <c r="L4" s="4">
         <f>VLOOKUP($L$3,$A$1:$I$101,2,TRUE)</f>
-        <v>4800</v>
+        <v>6400</v>
       </c>
       <c r="M4" s="7" t="s">
         <v>2</v>
       </c>
       <c r="N4" s="8">
         <f>VLOOKUP($L$3,$A$1:$I$101,3,TRUE)</f>
-        <v>900</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
@@ -4891,14 +4891,14 @@
       </c>
       <c r="L5" s="4">
         <f>VLOOKUP($L$3,$A$1:$I$101,4,TRUE)</f>
-        <v>240</v>
+        <v>320</v>
       </c>
       <c r="M5" s="7" t="s">
         <v>6</v>
       </c>
       <c r="N5" s="8">
         <f>VLOOKUP($L$3,$A$1:$I$101,7,TRUE)</f>
-        <v>420</v>
+        <v>560</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
@@ -4942,14 +4942,14 @@
       </c>
       <c r="L6" s="4">
         <f>VLOOKUP($L$3,$A$1:$I$101,5,TRUE)</f>
-        <v>180</v>
+        <v>240</v>
       </c>
       <c r="M6" s="7" t="s">
         <v>7</v>
       </c>
       <c r="N6" s="8">
         <f>VLOOKUP($L$3,$A$1:$I$101,8,TRUE)</f>
-        <v>420</v>
+        <v>560</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -4993,7 +4993,7 @@
       </c>
       <c r="L7" s="6">
         <f>VLOOKUP($L$3,$A$1:$I$101,6,TRUE)</f>
-        <v>180</v>
+        <v>240</v>
       </c>
       <c r="M7" s="9" t="s">
         <v>8</v>
@@ -5124,14 +5124,14 @@
       </c>
       <c r="L10" s="4">
         <f>VLOOKUP($L$3,$A$1:$I$101,2,TRUE)</f>
-        <v>4800</v>
+        <v>6400</v>
       </c>
       <c r="M10" s="7" t="s">
         <v>2</v>
       </c>
       <c r="N10" s="8">
         <f>VLOOKUP($L$3,$A$1:$I$101,3,TRUE)</f>
-        <v>900</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
@@ -5175,14 +5175,14 @@
       </c>
       <c r="L11" s="4">
         <f>VLOOKUP($L$3,$A$1:$I$101,4,TRUE)*0.6</f>
-        <v>144</v>
+        <v>192</v>
       </c>
       <c r="M11" s="7" t="s">
         <v>6</v>
       </c>
       <c r="N11" s="8">
         <f>VLOOKUP($L$3,$A$1:$I$101,7,TRUE)*0.4</f>
-        <v>168</v>
+        <v>224</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
@@ -5226,14 +5226,14 @@
       </c>
       <c r="L12" s="4">
         <f>VLOOKUP($L$3,$A$1:$I$101,5,TRUE)*0.6</f>
-        <v>108</v>
+        <v>144</v>
       </c>
       <c r="M12" s="7" t="s">
         <v>7</v>
       </c>
       <c r="N12" s="8">
         <f>VLOOKUP($L$3,$A$1:$I$101,8,TRUE)*0.4</f>
-        <v>168</v>
+        <v>224</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
@@ -5277,7 +5277,7 @@
       </c>
       <c r="L13" s="6">
         <f>VLOOKUP($L$3,$A$1:$I$101,6,TRUE)</f>
-        <v>180</v>
+        <v>240</v>
       </c>
       <c r="M13" s="9" t="s">
         <v>8</v>
@@ -8622,8 +8622,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17713D80-9D76-46AC-8910-200995FE1977}">
   <dimension ref="A1:N101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3:N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8738,7 +8738,7 @@
         <v>0</v>
       </c>
       <c r="L3" s="26">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="M3" s="26"/>
       <c r="N3" s="27"/>
@@ -8783,14 +8783,14 @@
       </c>
       <c r="L4" s="4">
         <f>VLOOKUP($L$3,$A$1:$I$101,2,TRUE)</f>
-        <v>400</v>
+        <v>3200</v>
       </c>
       <c r="M4" s="7" t="s">
         <v>2</v>
       </c>
       <c r="N4" s="8">
         <f>VLOOKUP($L$3,$A$1:$I$101,3,TRUE)</f>
-        <v>150</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
@@ -8833,14 +8833,14 @@
       </c>
       <c r="L5" s="4">
         <f>VLOOKUP($L$3,$A$1:$I$101,4,TRUE)</f>
-        <v>70</v>
+        <v>560</v>
       </c>
       <c r="M5" s="7" t="s">
         <v>6</v>
       </c>
       <c r="N5" s="8">
         <f>VLOOKUP($L$3,$A$1:$I$101,7,TRUE)</f>
-        <v>30</v>
+        <v>240</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
@@ -8883,14 +8883,14 @@
       </c>
       <c r="L6" s="4">
         <f>VLOOKUP($L$3,$A$1:$I$101,5,TRUE)</f>
-        <v>70</v>
+        <v>560</v>
       </c>
       <c r="M6" s="7" t="s">
         <v>7</v>
       </c>
       <c r="N6" s="8">
         <f>VLOOKUP($L$3,$A$1:$I$101,8,TRUE)</f>
-        <v>30</v>
+        <v>240</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -8933,7 +8933,7 @@
       </c>
       <c r="L7" s="6">
         <f>VLOOKUP($L$3,$A$1:$I$101,6,TRUE)</f>
-        <v>40</v>
+        <v>320</v>
       </c>
       <c r="M7" s="9" t="s">
         <v>8</v>
@@ -9061,14 +9061,14 @@
       </c>
       <c r="L10" s="4">
         <f>VLOOKUP($L$3,$A$1:$I$101,2,TRUE)</f>
-        <v>400</v>
+        <v>3200</v>
       </c>
       <c r="M10" s="7" t="s">
         <v>2</v>
       </c>
       <c r="N10" s="8">
         <f>VLOOKUP($L$3,$A$1:$I$101,3,TRUE)</f>
-        <v>150</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
@@ -9111,14 +9111,14 @@
       </c>
       <c r="L11" s="4">
         <f>VLOOKUP($L$3,$A$1:$I$101,4,TRUE)*0.6</f>
-        <v>42</v>
+        <v>336</v>
       </c>
       <c r="M11" s="7" t="s">
         <v>6</v>
       </c>
       <c r="N11" s="8">
         <f>VLOOKUP($L$3,$A$1:$I$101,7,TRUE)*0.4</f>
-        <v>12</v>
+        <v>96</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
@@ -9161,14 +9161,14 @@
       </c>
       <c r="L12" s="4">
         <f>VLOOKUP($L$3,$A$1:$I$101,5,TRUE)*0.6</f>
-        <v>42</v>
+        <v>336</v>
       </c>
       <c r="M12" s="7" t="s">
         <v>7</v>
       </c>
       <c r="N12" s="8">
         <f>VLOOKUP($L$3,$A$1:$I$101,8,TRUE)*0.4</f>
-        <v>12</v>
+        <v>96</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
@@ -9211,7 +9211,7 @@
       </c>
       <c r="L13" s="6">
         <f>VLOOKUP($L$3,$A$1:$I$101,6,TRUE)</f>
-        <v>40</v>
+        <v>320</v>
       </c>
       <c r="M13" s="9" t="s">
         <v>8</v>
